--- a/Historicos/remesas_municipios.xlsx
+++ b/Historicos/remesas_municipios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A977D615-B742-42C2-8D3A-E5CA6259C788}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302DB96F-72C9-414A-9667-5030117D77D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="remesas" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
     <t>Villa Hidalgo</t>
   </si>
   <si>
-    <t>I trimestre 2013 -  I trimestre 2023</t>
+    <t>I trimestre 2013 -  II trimestre 2023</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
     <numFmt numFmtId="166" formatCode="&quot;Jul-Sep&quot;\ yyyy"/>
     <numFmt numFmtId="167" formatCode="&quot;Oct-Dic&quot;\ yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -467,7 +467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -620,24 +620,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -675,12 +662,10 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,9 +684,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -739,9 +724,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -774,26 +759,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -826,26 +794,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1019,162 +970,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EH47"/>
+  <dimension ref="A1:EH48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" customWidth="1"/>
-    <col min="16" max="17" width="7.85546875" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.77734375" customWidth="1"/>
+    <col min="16" max="17" width="7.88671875" customWidth="1"/>
+    <col min="18" max="18" width="10.109375" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" customWidth="1"/>
+    <col min="20" max="20" width="14.21875" customWidth="1"/>
     <col min="21" max="21" width="10" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" customWidth="1"/>
-    <col min="26" max="26" width="7.85546875" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" customWidth="1"/>
-    <col min="29" max="29" width="17.85546875" customWidth="1"/>
-    <col min="30" max="31" width="7.85546875" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" customWidth="1"/>
-    <col min="33" max="33" width="8.28515625" customWidth="1"/>
-    <col min="34" max="34" width="10.140625" customWidth="1"/>
-    <col min="35" max="36" width="11.7109375" customWidth="1"/>
-    <col min="37" max="37" width="7.85546875" customWidth="1"/>
-    <col min="38" max="38" width="13.7109375" customWidth="1"/>
-    <col min="39" max="39" width="11.140625" customWidth="1"/>
-    <col min="40" max="40" width="13.85546875" customWidth="1"/>
-    <col min="41" max="41" width="14.140625" customWidth="1"/>
-    <col min="42" max="42" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.7109375" customWidth="1"/>
-    <col min="44" max="44" width="11.28515625" customWidth="1"/>
-    <col min="45" max="45" width="13.140625" customWidth="1"/>
-    <col min="46" max="46" width="16.7109375" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" customWidth="1"/>
+    <col min="24" max="24" width="14.21875" customWidth="1"/>
+    <col min="25" max="25" width="9.77734375" customWidth="1"/>
+    <col min="26" max="26" width="7.88671875" customWidth="1"/>
+    <col min="27" max="27" width="9.21875" customWidth="1"/>
+    <col min="28" max="28" width="14.77734375" customWidth="1"/>
+    <col min="29" max="29" width="17.88671875" customWidth="1"/>
+    <col min="30" max="31" width="7.88671875" customWidth="1"/>
+    <col min="32" max="32" width="10.77734375" customWidth="1"/>
+    <col min="33" max="33" width="8.21875" customWidth="1"/>
+    <col min="34" max="34" width="10.109375" customWidth="1"/>
+    <col min="35" max="36" width="11.77734375" customWidth="1"/>
+    <col min="37" max="37" width="7.88671875" customWidth="1"/>
+    <col min="38" max="38" width="13.6640625" customWidth="1"/>
+    <col min="39" max="39" width="11.109375" customWidth="1"/>
+    <col min="40" max="40" width="13.88671875" customWidth="1"/>
+    <col min="41" max="41" width="14.109375" customWidth="1"/>
+    <col min="42" max="42" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.77734375" customWidth="1"/>
+    <col min="44" max="44" width="11.33203125" customWidth="1"/>
+    <col min="45" max="45" width="13.109375" customWidth="1"/>
+    <col min="46" max="46" width="16.77734375" customWidth="1"/>
     <col min="47" max="47" width="14" customWidth="1"/>
-    <col min="48" max="48" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.85546875" customWidth="1"/>
-    <col min="50" max="50" width="11.85546875" customWidth="1"/>
-    <col min="51" max="51" width="16.7109375" customWidth="1"/>
-    <col min="52" max="52" width="10.28515625" customWidth="1"/>
-    <col min="53" max="53" width="12.140625" customWidth="1"/>
-    <col min="54" max="54" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.7109375" customWidth="1"/>
-    <col min="57" max="57" width="16.7109375" customWidth="1"/>
-    <col min="58" max="58" width="13.7109375" customWidth="1"/>
-    <col min="59" max="59" width="12.140625" customWidth="1"/>
-    <col min="60" max="60" width="14.28515625" customWidth="1"/>
-    <col min="61" max="62" width="11.140625" customWidth="1"/>
+    <col min="48" max="48" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.88671875" customWidth="1"/>
+    <col min="50" max="50" width="11.88671875" customWidth="1"/>
+    <col min="51" max="51" width="16.77734375" customWidth="1"/>
+    <col min="52" max="52" width="10.21875" customWidth="1"/>
+    <col min="53" max="53" width="12.109375" customWidth="1"/>
+    <col min="54" max="54" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.77734375" customWidth="1"/>
+    <col min="57" max="57" width="16.6640625" customWidth="1"/>
+    <col min="58" max="58" width="13.77734375" customWidth="1"/>
+    <col min="59" max="59" width="12.109375" customWidth="1"/>
+    <col min="60" max="60" width="14.33203125" customWidth="1"/>
+    <col min="61" max="62" width="11.109375" customWidth="1"/>
     <col min="63" max="63" width="10" customWidth="1"/>
-    <col min="64" max="64" width="10.140625" customWidth="1"/>
-    <col min="65" max="65" width="8.7109375" customWidth="1"/>
-    <col min="66" max="66" width="12.140625" customWidth="1"/>
-    <col min="67" max="67" width="9.28515625" customWidth="1"/>
-    <col min="68" max="68" width="10.7109375" customWidth="1"/>
-    <col min="69" max="69" width="13.28515625" customWidth="1"/>
-    <col min="70" max="70" width="10.140625" customWidth="1"/>
+    <col min="64" max="64" width="10.109375" customWidth="1"/>
+    <col min="65" max="65" width="8.6640625" customWidth="1"/>
+    <col min="66" max="66" width="12.109375" customWidth="1"/>
+    <col min="67" max="67" width="9.33203125" customWidth="1"/>
+    <col min="68" max="68" width="10.6640625" customWidth="1"/>
+    <col min="69" max="69" width="13.21875" customWidth="1"/>
+    <col min="70" max="70" width="10.109375" customWidth="1"/>
     <col min="71" max="71" width="15" customWidth="1"/>
-    <col min="72" max="72" width="13.7109375" customWidth="1"/>
+    <col min="72" max="72" width="13.6640625" customWidth="1"/>
     <col min="73" max="73" width="12" customWidth="1"/>
-    <col min="74" max="74" width="16.7109375" customWidth="1"/>
-    <col min="75" max="75" width="16.140625" customWidth="1"/>
-    <col min="76" max="76" width="12.28515625" customWidth="1"/>
-    <col min="77" max="77" width="11.28515625" customWidth="1"/>
+    <col min="74" max="74" width="16.6640625" customWidth="1"/>
+    <col min="75" max="75" width="16.109375" customWidth="1"/>
+    <col min="76" max="76" width="12.33203125" customWidth="1"/>
+    <col min="77" max="77" width="11.33203125" customWidth="1"/>
     <col min="78" max="78" width="12" customWidth="1"/>
-    <col min="79" max="79" width="14.140625" customWidth="1"/>
-    <col min="80" max="80" width="15.28515625" customWidth="1"/>
-    <col min="81" max="81" width="12.85546875" customWidth="1"/>
+    <col min="79" max="79" width="14.109375" customWidth="1"/>
+    <col min="80" max="80" width="15.21875" customWidth="1"/>
+    <col min="81" max="81" width="12.88671875" customWidth="1"/>
     <col min="82" max="82" width="14" customWidth="1"/>
-    <col min="83" max="83" width="14.28515625" customWidth="1"/>
+    <col min="83" max="83" width="14.33203125" customWidth="1"/>
     <col min="84" max="84" width="12" customWidth="1"/>
-    <col min="85" max="86" width="7.85546875" customWidth="1"/>
-    <col min="87" max="87" width="10.28515625" customWidth="1"/>
-    <col min="88" max="88" width="15.7109375" customWidth="1"/>
-    <col min="89" max="89" width="9.85546875" customWidth="1"/>
-    <col min="90" max="90" width="13.7109375" customWidth="1"/>
-    <col min="91" max="91" width="14.28515625" customWidth="1"/>
-    <col min="92" max="92" width="12.7109375" customWidth="1"/>
+    <col min="85" max="86" width="7.88671875" customWidth="1"/>
+    <col min="87" max="87" width="10.33203125" customWidth="1"/>
+    <col min="88" max="88" width="15.6640625" customWidth="1"/>
+    <col min="89" max="89" width="9.88671875" customWidth="1"/>
+    <col min="90" max="90" width="13.77734375" customWidth="1"/>
+    <col min="91" max="91" width="14.33203125" customWidth="1"/>
+    <col min="92" max="92" width="12.6640625" customWidth="1"/>
     <col min="93" max="93" width="13" customWidth="1"/>
-    <col min="94" max="94" width="11.85546875" customWidth="1"/>
-    <col min="95" max="95" width="12.28515625" customWidth="1"/>
-    <col min="96" max="96" width="10.7109375" customWidth="1"/>
-    <col min="97" max="97" width="7.85546875" customWidth="1"/>
-    <col min="98" max="98" width="12.85546875" customWidth="1"/>
-    <col min="99" max="99" width="12.7109375" customWidth="1"/>
+    <col min="94" max="94" width="11.88671875" customWidth="1"/>
+    <col min="95" max="95" width="12.33203125" customWidth="1"/>
+    <col min="96" max="96" width="10.77734375" customWidth="1"/>
+    <col min="97" max="97" width="7.88671875" customWidth="1"/>
+    <col min="98" max="98" width="12.88671875" customWidth="1"/>
+    <col min="99" max="99" width="12.77734375" customWidth="1"/>
     <col min="100" max="100" width="11" customWidth="1"/>
-    <col min="101" max="101" width="13.140625" customWidth="1"/>
-    <col min="102" max="102" width="9.28515625" customWidth="1"/>
-    <col min="103" max="103" width="10.28515625" customWidth="1"/>
-    <col min="104" max="106" width="7.85546875" customWidth="1"/>
-    <col min="107" max="107" width="10.28515625" customWidth="1"/>
-    <col min="108" max="108" width="9.28515625" customWidth="1"/>
-    <col min="109" max="109" width="12.7109375" customWidth="1"/>
-    <col min="110" max="110" width="11.28515625" customWidth="1"/>
-    <col min="111" max="111" width="7.85546875" customWidth="1"/>
-    <col min="112" max="112" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="9.7109375" customWidth="1"/>
-    <col min="114" max="114" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="13.109375" customWidth="1"/>
+    <col min="102" max="102" width="9.21875" customWidth="1"/>
+    <col min="103" max="103" width="10.33203125" customWidth="1"/>
+    <col min="104" max="106" width="7.88671875" customWidth="1"/>
+    <col min="107" max="107" width="10.21875" customWidth="1"/>
+    <col min="108" max="108" width="9.33203125" customWidth="1"/>
+    <col min="109" max="109" width="12.77734375" customWidth="1"/>
+    <col min="110" max="110" width="11.33203125" customWidth="1"/>
+    <col min="111" max="111" width="7.88671875" customWidth="1"/>
+    <col min="112" max="112" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="9.77734375" customWidth="1"/>
+    <col min="114" max="114" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="10" customWidth="1"/>
-    <col min="116" max="116" width="8.28515625" customWidth="1"/>
-    <col min="117" max="117" width="9.7109375" customWidth="1"/>
+    <col min="116" max="116" width="8.33203125" customWidth="1"/>
+    <col min="117" max="117" width="9.6640625" customWidth="1"/>
     <col min="118" max="118" width="9" customWidth="1"/>
-    <col min="119" max="119" width="12.28515625" customWidth="1"/>
-    <col min="120" max="120" width="13.7109375" customWidth="1"/>
-    <col min="121" max="121" width="9.7109375" customWidth="1"/>
-    <col min="122" max="122" width="10.140625" customWidth="1"/>
-    <col min="123" max="123" width="9.140625" customWidth="1"/>
-    <col min="124" max="124" width="11.85546875" customWidth="1"/>
-    <col min="125" max="125" width="10.7109375" customWidth="1"/>
-    <col min="126" max="126" width="10.140625" customWidth="1"/>
+    <col min="119" max="119" width="12.21875" customWidth="1"/>
+    <col min="120" max="120" width="13.6640625" customWidth="1"/>
+    <col min="121" max="121" width="9.77734375" customWidth="1"/>
+    <col min="122" max="122" width="10.109375" customWidth="1"/>
+    <col min="123" max="123" width="9.109375" customWidth="1"/>
+    <col min="124" max="124" width="11.88671875" customWidth="1"/>
+    <col min="125" max="125" width="10.77734375" customWidth="1"/>
+    <col min="126" max="126" width="10.109375" customWidth="1"/>
     <col min="127" max="127" width="12" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="12.28515625" customWidth="1"/>
+    <col min="128" max="128" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128">
+    <row r="1" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:128">
+    <row r="2" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:128">
+    <row r="3" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:128">
+    <row r="4" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:128">
+    <row r="5" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:128" ht="41.45" customHeight="1">
+    <row r="6" spans="1:128" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>129</v>
       </c>
@@ -1560,7 +1511,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:128" ht="15">
+    <row r="7" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>41275</v>
       </c>
@@ -1946,7 +1897,7 @@
         <v>0.86528499999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:128" ht="15">
+    <row r="8" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>41365</v>
       </c>
@@ -2332,7 +2283,7 @@
         <v>0.27440199999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:128" ht="15">
+    <row r="9" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>41456</v>
       </c>
@@ -2718,7 +2669,7 @@
         <v>0.10397099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:128" ht="15">
+    <row r="10" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>41548</v>
       </c>
@@ -3104,7 +3055,7 @@
         <v>0.193551</v>
       </c>
     </row>
-    <row r="11" spans="1:128" ht="15">
+    <row r="11" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>41640</v>
       </c>
@@ -3490,7 +3441,7 @@
         <v>0.118038</v>
       </c>
     </row>
-    <row r="12" spans="1:128" ht="15">
+    <row r="12" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>41730</v>
       </c>
@@ -3876,7 +3827,7 @@
         <v>0.16233</v>
       </c>
     </row>
-    <row r="13" spans="1:128" ht="15">
+    <row r="13" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>41821</v>
       </c>
@@ -4262,7 +4213,7 @@
         <v>0.20357900000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:128" ht="15">
+    <row r="14" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>41913</v>
       </c>
@@ -4648,7 +4599,7 @@
         <v>0.242922</v>
       </c>
     </row>
-    <row r="15" spans="1:128" ht="15">
+    <row r="15" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>42005</v>
       </c>
@@ -5034,7 +4985,7 @@
         <v>0.154672</v>
       </c>
     </row>
-    <row r="16" spans="1:128" ht="15">
+    <row r="16" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>42095</v>
       </c>
@@ -5420,7 +5371,7 @@
         <v>0.11096499999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:128" ht="15">
+    <row r="17" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>42186</v>
       </c>
@@ -5806,7 +5757,7 @@
         <v>7.5118000000000004E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:128" ht="15">
+    <row r="18" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>42278</v>
       </c>
@@ -6192,7 +6143,7 @@
         <v>7.1164000000000005E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:128" ht="15">
+    <row r="19" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>42370</v>
       </c>
@@ -6578,7 +6529,7 @@
         <v>6.0433000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:128" ht="15">
+    <row r="20" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>42461</v>
       </c>
@@ -6964,7 +6915,7 @@
         <v>0.105056</v>
       </c>
     </row>
-    <row r="21" spans="1:128" ht="15">
+    <row r="21" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>42552</v>
       </c>
@@ -7350,7 +7301,7 @@
         <v>6.3698000000000005E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:128" ht="15">
+    <row r="22" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>42644</v>
       </c>
@@ -7736,7 +7687,7 @@
         <v>0.14654800000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:128" ht="15">
+    <row r="23" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>42736</v>
       </c>
@@ -8122,7 +8073,7 @@
         <v>0.95694199999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:128" ht="15">
+    <row r="24" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>42826</v>
       </c>
@@ -8508,7 +8459,7 @@
         <v>5.1679000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:128" ht="15">
+    <row r="25" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>42917</v>
       </c>
@@ -8894,7 +8845,7 @@
         <v>3.2814999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:128" ht="15">
+    <row r="26" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>43009</v>
       </c>
@@ -9280,7 +9231,7 @@
         <v>2.1017000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:128" ht="15">
+    <row r="27" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>43101</v>
       </c>
@@ -9666,7 +9617,7 @@
         <v>2.4133000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:128" ht="15">
+    <row r="28" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>43191</v>
       </c>
@@ -10052,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:128" ht="15">
+    <row r="29" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>43282</v>
       </c>
@@ -10438,7 +10389,7 @@
         <v>7.2326000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:128" ht="15">
+    <row r="30" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>43374</v>
       </c>
@@ -10824,7 +10775,7 @@
         <v>9.153E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:128" ht="15">
+    <row r="31" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>43466</v>
       </c>
@@ -11210,7 +11161,7 @@
         <v>7.9144999999999993E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:128" ht="15">
+    <row r="32" spans="1:128" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>43556</v>
       </c>
@@ -11596,7 +11547,7 @@
         <v>0.12969900000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:138" ht="15">
+    <row r="33" spans="1:138" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>43647</v>
       </c>
@@ -11982,7 +11933,7 @@
         <v>0.109945</v>
       </c>
     </row>
-    <row r="34" spans="1:138" ht="15">
+    <row r="34" spans="1:138" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>43739</v>
       </c>
@@ -12368,7 +12319,7 @@
         <v>0.12294099999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:138" ht="15">
+    <row r="35" spans="1:138" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>43831</v>
       </c>
@@ -12754,7 +12705,7 @@
         <v>0.141737</v>
       </c>
     </row>
-    <row r="36" spans="1:138" ht="15">
+    <row r="36" spans="1:138" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>43922</v>
       </c>
@@ -13140,7 +13091,7 @@
         <v>0.138459</v>
       </c>
     </row>
-    <row r="37" spans="1:138" ht="15">
+    <row r="37" spans="1:138" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>44013</v>
       </c>
@@ -13526,7 +13477,7 @@
         <v>0.14216599999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:138" ht="15">
+    <row r="38" spans="1:138" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>44105</v>
       </c>
@@ -13912,7 +13863,7 @@
         <v>0.13885900000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:138" ht="15">
+    <row r="39" spans="1:138" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>44197</v>
       </c>
@@ -14298,7 +14249,7 @@
         <v>0.15117800000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:138" ht="15">
+    <row r="40" spans="1:138" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>44287</v>
       </c>
@@ -14684,7 +14635,7 @@
         <v>0.19134499999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:138" ht="15">
+    <row r="41" spans="1:138" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>44378</v>
       </c>
@@ -15070,7 +15021,7 @@
         <v>0.184447</v>
       </c>
     </row>
-    <row r="42" spans="1:138" ht="15">
+    <row r="42" spans="1:138" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>44470</v>
       </c>
@@ -15456,7 +15407,7 @@
         <v>0.156526</v>
       </c>
     </row>
-    <row r="43" spans="1:138" ht="15">
+    <row r="43" spans="1:138" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>44562</v>
       </c>
@@ -15842,7 +15793,7 @@
         <v>0.12862299999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:138" ht="15">
+    <row r="44" spans="1:138" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>44652</v>
       </c>
@@ -16228,7 +16179,7 @@
         <v>0.16307099999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:138" ht="15">
+    <row r="45" spans="1:138" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>44743</v>
       </c>
@@ -16624,776 +16575,1162 @@
       <c r="EG45" s="8"/>
       <c r="EH45" s="8"/>
     </row>
-    <row r="46" spans="1:138" ht="15">
-      <c r="A46" s="17">
+    <row r="46" spans="1:138" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="18">
         <v>44835</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="19">
         <v>1377.8637000000001</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="19">
         <v>3.5750419999999998</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="19">
         <v>7.4990880000000004</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="19">
         <v>9.9159369999999996</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="19">
         <v>0.14960899999999999</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="19">
         <v>4.4602789999999999</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="19">
         <v>34.501717999999997</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="19">
         <v>25.175401000000001</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="19">
         <v>0.77837199999999995</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K46" s="19">
         <v>1.1973229999999999</v>
       </c>
-      <c r="L46" s="10">
+      <c r="L46" s="19">
         <v>2.6780740000000001</v>
       </c>
-      <c r="M46" s="10">
+      <c r="M46" s="19">
         <v>19.217894000000001</v>
       </c>
-      <c r="N46" s="10">
+      <c r="N46" s="19">
         <v>1.7786230000000001</v>
       </c>
-      <c r="O46" s="10">
+      <c r="O46" s="19">
         <v>18.064233000000002</v>
       </c>
-      <c r="P46" s="10">
+      <c r="P46" s="19">
         <v>13.827870000000001</v>
       </c>
-      <c r="Q46" s="10">
+      <c r="Q46" s="19">
         <v>18.029682000000001</v>
       </c>
-      <c r="R46" s="10">
+      <c r="R46" s="19">
         <v>0.59079899999999996</v>
       </c>
-      <c r="S46" s="10">
+      <c r="S46" s="19">
         <v>1.4446490000000001</v>
       </c>
-      <c r="T46" s="10">
+      <c r="T46" s="19">
         <v>1.3729450000000001</v>
       </c>
-      <c r="U46" s="10">
+      <c r="U46" s="19">
         <v>12.227786</v>
       </c>
-      <c r="V46" s="10">
+      <c r="V46" s="19">
         <v>12.919808</v>
       </c>
-      <c r="W46" s="10">
+      <c r="W46" s="19">
         <v>0.75431899999999996</v>
       </c>
-      <c r="X46" s="10">
+      <c r="X46" s="19">
         <v>1.8783479999999999</v>
       </c>
-      <c r="Y46" s="10">
+      <c r="Y46" s="19">
         <v>11.996468</v>
       </c>
-      <c r="Z46" s="10">
+      <c r="Z46" s="19">
         <v>2.7551130000000001</v>
       </c>
-      <c r="AA46" s="10">
+      <c r="AA46" s="19">
         <v>11.749133</v>
       </c>
-      <c r="AB46" s="10">
+      <c r="AB46" s="19">
         <v>2.4026990000000001</v>
       </c>
-      <c r="AC46" s="10">
+      <c r="AC46" s="19">
         <v>2.3073440000000001</v>
       </c>
-      <c r="AD46" s="10">
+      <c r="AD46" s="19">
         <v>1.378601</v>
       </c>
-      <c r="AE46" s="10">
+      <c r="AE46" s="19">
         <v>10.28909</v>
       </c>
-      <c r="AF46" s="10">
+      <c r="AF46" s="19">
         <v>25.532107</v>
       </c>
-      <c r="AG46" s="10">
+      <c r="AG46" s="19">
         <v>1.232197</v>
       </c>
-      <c r="AH46" s="10">
+      <c r="AH46" s="19">
         <v>1.25925</v>
       </c>
-      <c r="AI46" s="10">
+      <c r="AI46" s="19">
         <v>20.606455</v>
       </c>
-      <c r="AJ46" s="10">
+      <c r="AJ46" s="19">
         <v>0.49059999999999998</v>
       </c>
-      <c r="AK46" s="10">
+      <c r="AK46" s="19">
         <v>15.233579000000001</v>
       </c>
-      <c r="AL46" s="10">
+      <c r="AL46" s="19">
         <v>17.839158999999999</v>
       </c>
-      <c r="AM46" s="10">
+      <c r="AM46" s="19">
         <v>5.8787799999999999</v>
       </c>
-      <c r="AN46" s="10">
+      <c r="AN46" s="19">
         <v>4.3490609999999998</v>
       </c>
-      <c r="AO46" s="10">
+      <c r="AO46" s="19">
         <v>1.669262</v>
       </c>
-      <c r="AP46" s="10">
+      <c r="AP46" s="19">
         <v>165.14371499999999</v>
       </c>
-      <c r="AQ46" s="10">
+      <c r="AQ46" s="19">
         <v>0.68293800000000005</v>
       </c>
-      <c r="AR46" s="10">
+      <c r="AR46" s="19">
         <v>4.8198080000000001</v>
       </c>
-      <c r="AS46" s="10">
+      <c r="AS46" s="19">
         <v>6.9002299999999996</v>
       </c>
-      <c r="AT46" s="10">
+      <c r="AT46" s="19">
         <v>3.160577</v>
       </c>
-      <c r="AU46" s="10">
+      <c r="AU46" s="19">
         <v>8.1914800000000003</v>
       </c>
-      <c r="AV46" s="10">
+      <c r="AV46" s="19">
         <v>12.888458999999999</v>
       </c>
-      <c r="AW46" s="10">
+      <c r="AW46" s="19">
         <v>7.0592779999999999</v>
       </c>
-      <c r="AX46" s="10">
+      <c r="AX46" s="19">
         <v>4.8993770000000003</v>
       </c>
-      <c r="AY46" s="10">
+      <c r="AY46" s="19">
         <v>1.21658</v>
       </c>
-      <c r="AZ46" s="10">
+      <c r="AZ46" s="19">
         <v>12.692938</v>
       </c>
-      <c r="BA46" s="10">
+      <c r="BA46" s="19">
         <v>0.79955600000000004</v>
       </c>
-      <c r="BB46" s="10">
+      <c r="BB46" s="19">
         <v>1.966194</v>
       </c>
-      <c r="BC46" s="10">
+      <c r="BC46" s="19">
         <v>28.713080999999999</v>
       </c>
-      <c r="BD46" s="10">
+      <c r="BD46" s="19">
         <v>9.7619109999999996</v>
       </c>
-      <c r="BE46" s="10">
+      <c r="BE46" s="19">
         <v>2.1795840000000002</v>
       </c>
-      <c r="BF46" s="10">
+      <c r="BF46" s="19">
         <v>35.989130000000003</v>
       </c>
-      <c r="BG46" s="10">
+      <c r="BG46" s="19">
         <v>9.6844809999999999</v>
       </c>
-      <c r="BH46" s="10">
+      <c r="BH46" s="19">
         <v>7.7533399999999997</v>
       </c>
-      <c r="BI46" s="10">
+      <c r="BI46" s="19">
         <v>3.8781249999999998</v>
       </c>
-      <c r="BJ46" s="10">
+      <c r="BJ46" s="19">
         <v>1.7248220000000001</v>
       </c>
-      <c r="BK46" s="10">
+      <c r="BK46" s="19">
         <v>1.948086</v>
       </c>
-      <c r="BL46" s="10">
+      <c r="BL46" s="19">
         <v>3.385993</v>
       </c>
-      <c r="BM46" s="10">
+      <c r="BM46" s="19">
         <v>19.606645</v>
       </c>
-      <c r="BN46" s="10">
+      <c r="BN46" s="19">
         <v>35.046823000000003</v>
       </c>
-      <c r="BO46" s="10">
+      <c r="BO46" s="19">
         <v>3.7035330000000002</v>
       </c>
-      <c r="BP46" s="10">
+      <c r="BP46" s="19">
         <v>13.301596</v>
       </c>
-      <c r="BQ46" s="10">
+      <c r="BQ46" s="19">
         <v>36.590972000000001</v>
       </c>
-      <c r="BR46" s="10">
+      <c r="BR46" s="19">
         <v>2.286778</v>
       </c>
-      <c r="BS46" s="10">
+      <c r="BS46" s="19">
         <v>0</v>
       </c>
-      <c r="BT46" s="10">
+      <c r="BT46" s="19">
         <v>0.17070299999999999</v>
       </c>
-      <c r="BU46" s="10">
+      <c r="BU46" s="19">
         <v>2.9397099999999998</v>
       </c>
-      <c r="BV46" s="10">
+      <c r="BV46" s="19">
         <v>3.4579230000000001</v>
       </c>
-      <c r="BW46" s="10">
+      <c r="BW46" s="19">
         <v>14.714127</v>
       </c>
-      <c r="BX46" s="10">
+      <c r="BX46" s="19">
         <v>0.80513900000000005</v>
       </c>
-      <c r="BY46" s="10">
+      <c r="BY46" s="19">
         <v>13.11552</v>
       </c>
-      <c r="BZ46" s="10">
+      <c r="BZ46" s="19">
         <v>0.23739099999999999</v>
       </c>
-      <c r="CA46" s="10">
+      <c r="CA46" s="19">
         <v>0.57662599999999997</v>
       </c>
-      <c r="CB46" s="10">
+      <c r="CB46" s="19">
         <v>8.3413439999999994</v>
       </c>
-      <c r="CC46" s="10">
+      <c r="CC46" s="19">
         <v>15.737652000000001</v>
       </c>
-      <c r="CD46" s="10">
+      <c r="CD46" s="19">
         <v>1.699668</v>
       </c>
-      <c r="CE46" s="10">
+      <c r="CE46" s="19">
         <v>0</v>
       </c>
-      <c r="CF46" s="10">
+      <c r="CF46" s="19">
         <v>0</v>
       </c>
-      <c r="CG46" s="10">
+      <c r="CG46" s="19">
         <v>7.8550279999999999</v>
       </c>
-      <c r="CH46" s="10">
+      <c r="CH46" s="19">
         <v>16.333283999999999</v>
       </c>
-      <c r="CI46" s="10">
+      <c r="CI46" s="19">
         <v>5.0268879999999996</v>
       </c>
-      <c r="CJ46" s="10">
+      <c r="CJ46" s="19">
         <v>17.501214000000001</v>
       </c>
-      <c r="CK46" s="10">
+      <c r="CK46" s="19">
         <v>3.9723389999999998</v>
       </c>
-      <c r="CL46" s="10">
+      <c r="CL46" s="19">
         <v>1.917478</v>
       </c>
-      <c r="CM46" s="10">
+      <c r="CM46" s="19">
         <v>5.8902000000000003E-2</v>
       </c>
-      <c r="CN46" s="10">
+      <c r="CN46" s="19">
         <v>10.359831</v>
       </c>
-      <c r="CO46" s="10">
+      <c r="CO46" s="19">
         <v>7.4549659999999998</v>
       </c>
-      <c r="CP46" s="10">
+      <c r="CP46" s="19">
         <v>16.776363</v>
       </c>
-      <c r="CQ46" s="10">
+      <c r="CQ46" s="19">
         <v>4.6774050000000003</v>
       </c>
-      <c r="CR46" s="10">
+      <c r="CR46" s="19">
         <v>41.083970000000001</v>
       </c>
-      <c r="CS46" s="10">
+      <c r="CS46" s="19">
         <v>8.7280689999999996</v>
       </c>
-      <c r="CT46" s="10">
+      <c r="CT46" s="19">
         <v>1.851267</v>
       </c>
-      <c r="CU46" s="10">
+      <c r="CU46" s="19">
         <v>18.853337</v>
       </c>
-      <c r="CV46" s="10">
+      <c r="CV46" s="19">
         <v>24.655909999999999</v>
       </c>
-      <c r="CW46" s="10">
+      <c r="CW46" s="19">
         <v>33.172606999999999</v>
       </c>
-      <c r="CX46" s="10">
+      <c r="CX46" s="19">
         <v>1.0282880000000001</v>
       </c>
-      <c r="CY46" s="10">
+      <c r="CY46" s="19">
         <v>4.6003309999999997</v>
       </c>
-      <c r="CZ46" s="10">
+      <c r="CZ46" s="19">
         <v>39.992159000000001</v>
       </c>
-      <c r="DA46" s="10">
+      <c r="DA46" s="19">
         <v>3.2936480000000001</v>
       </c>
-      <c r="DB46" s="10">
+      <c r="DB46" s="19">
         <v>4.9342999999999998E-2</v>
       </c>
-      <c r="DC46" s="10">
+      <c r="DC46" s="19">
         <v>0.30228899999999997</v>
       </c>
-      <c r="DD46" s="10">
+      <c r="DD46" s="19">
         <v>11.22738</v>
       </c>
-      <c r="DE46" s="10">
+      <c r="DE46" s="19">
         <v>0.71961200000000003</v>
       </c>
-      <c r="DF46" s="10">
+      <c r="DF46" s="19">
         <v>0.104571</v>
       </c>
-      <c r="DG46" s="10">
+      <c r="DG46" s="19">
         <v>5.0536580000000004</v>
       </c>
-      <c r="DH46" s="10">
+      <c r="DH46" s="19">
         <v>2.4727700000000001</v>
       </c>
-      <c r="DI46" s="10">
+      <c r="DI46" s="19">
         <v>16.208971999999999</v>
       </c>
-      <c r="DJ46" s="10">
+      <c r="DJ46" s="19">
         <v>4.9421140000000001</v>
       </c>
-      <c r="DK46" s="10">
+      <c r="DK46" s="19">
         <v>4.9754E-2</v>
       </c>
-      <c r="DL46" s="10">
+      <c r="DL46" s="19">
         <v>3.4740199999999999</v>
       </c>
-      <c r="DM46" s="10">
+      <c r="DM46" s="19">
         <v>0.54409600000000002</v>
       </c>
-      <c r="DN46" s="10">
+      <c r="DN46" s="19">
         <v>14.205724</v>
       </c>
-      <c r="DO46" s="10">
+      <c r="DO46" s="19">
         <v>7.5083260000000003</v>
       </c>
-      <c r="DP46" s="10">
+      <c r="DP46" s="19">
         <v>6.7266750000000002</v>
       </c>
-      <c r="DQ46" s="10">
+      <c r="DQ46" s="19">
         <v>16.705587999999999</v>
       </c>
-      <c r="DR46" s="10">
+      <c r="DR46" s="19">
         <v>108.997184</v>
       </c>
-      <c r="DS46" s="10">
+      <c r="DS46" s="19">
         <v>7.608333</v>
       </c>
-      <c r="DT46" s="10">
+      <c r="DT46" s="19">
         <v>1.9207540000000001</v>
       </c>
-      <c r="DU46" s="10">
+      <c r="DU46" s="19">
         <v>1.0631600000000001</v>
       </c>
-      <c r="DV46" s="10">
+      <c r="DV46" s="19">
         <v>21.477385000000002</v>
       </c>
-      <c r="DW46" s="10">
+      <c r="DW46" s="19">
         <v>32.023924000000001</v>
       </c>
-      <c r="DX46" s="11">
+      <c r="DX46" s="9">
         <v>8.5062789999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:138" ht="15">
-      <c r="A47" s="19">
+    <row r="47" spans="1:138" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
         <v>44927</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="6">
         <v>1272.9387999999999</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="6">
         <v>3.6663670000000002</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="6">
         <v>6.416633</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="6">
         <v>8.878717</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="6">
         <v>5.2044E-2</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="6">
         <v>3.923225</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="6">
         <v>31.882263999999999</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="6">
         <v>24.764579999999999</v>
       </c>
-      <c r="J47" s="21">
+      <c r="J47" s="6">
         <v>0.66755699999999996</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K47" s="6">
         <v>0.263735</v>
       </c>
-      <c r="L47" s="21">
+      <c r="L47" s="6">
         <v>2.3914339999999998</v>
       </c>
-      <c r="M47" s="21">
+      <c r="M47" s="6">
         <v>19.257496</v>
       </c>
-      <c r="N47" s="21">
+      <c r="N47" s="6">
         <v>0.442048</v>
       </c>
-      <c r="O47" s="21">
+      <c r="O47" s="6">
         <v>18.510265</v>
       </c>
-      <c r="P47" s="21">
+      <c r="P47" s="6">
         <v>12.059380000000001</v>
       </c>
-      <c r="Q47" s="21">
+      <c r="Q47" s="6">
         <v>18.813568</v>
       </c>
-      <c r="R47" s="21">
+      <c r="R47" s="6">
         <v>0.53869900000000004</v>
       </c>
-      <c r="S47" s="21">
+      <c r="S47" s="6">
         <v>1.4361409999999999</v>
       </c>
-      <c r="T47" s="21">
+      <c r="T47" s="6">
         <v>0.126133</v>
       </c>
-      <c r="U47" s="21">
+      <c r="U47" s="6">
         <v>11.628261999999999</v>
       </c>
-      <c r="V47" s="21">
+      <c r="V47" s="6">
         <v>12.51103</v>
       </c>
-      <c r="W47" s="21">
+      <c r="W47" s="6">
         <v>0</v>
       </c>
-      <c r="X47" s="21">
+      <c r="X47" s="6">
         <v>1.5180959999999999</v>
       </c>
-      <c r="Y47" s="21">
+      <c r="Y47" s="6">
         <v>11.016904</v>
       </c>
-      <c r="Z47" s="21">
+      <c r="Z47" s="6">
         <v>0</v>
       </c>
-      <c r="AA47" s="21">
+      <c r="AA47" s="6">
         <v>9.9824549999999999</v>
       </c>
-      <c r="AB47" s="21">
+      <c r="AB47" s="6">
         <v>1.8513569999999999</v>
       </c>
-      <c r="AC47" s="21">
+      <c r="AC47" s="6">
         <v>1.0145</v>
       </c>
-      <c r="AD47" s="21">
+      <c r="AD47" s="6">
         <v>1.6465860000000001</v>
       </c>
-      <c r="AE47" s="21">
+      <c r="AE47" s="6">
         <v>8.0210799999999995</v>
       </c>
-      <c r="AF47" s="21">
+      <c r="AF47" s="6">
         <v>23.380462000000001</v>
       </c>
-      <c r="AG47" s="21">
+      <c r="AG47" s="6">
         <v>1.055061</v>
       </c>
-      <c r="AH47" s="21">
+      <c r="AH47" s="6">
         <v>1.8633439999999999</v>
       </c>
-      <c r="AI47" s="21">
+      <c r="AI47" s="6">
         <v>20.994</v>
       </c>
-      <c r="AJ47" s="21">
+      <c r="AJ47" s="6">
         <v>0.346022</v>
       </c>
-      <c r="AK47" s="21">
+      <c r="AK47" s="6">
         <v>13.851756999999999</v>
       </c>
-      <c r="AL47" s="21">
+      <c r="AL47" s="6">
         <v>16.899138000000001</v>
       </c>
-      <c r="AM47" s="21">
+      <c r="AM47" s="6">
         <v>4.9384300000000003</v>
       </c>
-      <c r="AN47" s="21">
+      <c r="AN47" s="6">
         <v>3.9063620000000001</v>
       </c>
-      <c r="AO47" s="21">
+      <c r="AO47" s="6">
         <v>1.752078</v>
       </c>
-      <c r="AP47" s="21">
+      <c r="AP47" s="6">
         <v>157.56148099999999</v>
       </c>
-      <c r="AQ47" s="21">
+      <c r="AQ47" s="6">
         <v>3.6937999999999999E-2</v>
       </c>
-      <c r="AR47" s="21">
+      <c r="AR47" s="6">
         <v>3.7280440000000001</v>
       </c>
-      <c r="AS47" s="21">
+      <c r="AS47" s="6">
         <v>4.331747</v>
       </c>
-      <c r="AT47" s="21">
+      <c r="AT47" s="6">
         <v>2.8724759999999998</v>
       </c>
-      <c r="AU47" s="21">
+      <c r="AU47" s="6">
         <v>6.6618899999999996</v>
       </c>
-      <c r="AV47" s="21">
+      <c r="AV47" s="6">
         <v>13.2029</v>
       </c>
-      <c r="AW47" s="21">
+      <c r="AW47" s="6">
         <v>6.2982639999999996</v>
       </c>
-      <c r="AX47" s="21">
+      <c r="AX47" s="6">
         <v>5.8101190000000003</v>
       </c>
-      <c r="AY47" s="21">
+      <c r="AY47" s="6">
         <v>0.93035500000000004</v>
       </c>
-      <c r="AZ47" s="21">
+      <c r="AZ47" s="6">
         <v>13.910551999999999</v>
       </c>
-      <c r="BA47" s="21">
+      <c r="BA47" s="6">
         <v>0.79952400000000001</v>
       </c>
-      <c r="BB47" s="21">
+      <c r="BB47" s="6">
         <v>1.5941970000000001</v>
       </c>
-      <c r="BC47" s="21">
+      <c r="BC47" s="6">
         <v>27.613443</v>
       </c>
-      <c r="BD47" s="21">
+      <c r="BD47" s="6">
         <v>8.9745240000000006</v>
       </c>
-      <c r="BE47" s="21">
+      <c r="BE47" s="6">
         <v>1.704806</v>
       </c>
-      <c r="BF47" s="21">
+      <c r="BF47" s="6">
         <v>32.789971000000001</v>
       </c>
-      <c r="BG47" s="21">
+      <c r="BG47" s="6">
         <v>9.19468</v>
       </c>
-      <c r="BH47" s="21">
+      <c r="BH47" s="6">
         <v>7.2584340000000003</v>
       </c>
-      <c r="BI47" s="21">
+      <c r="BI47" s="6">
         <v>4.0763509999999998</v>
       </c>
-      <c r="BJ47" s="21">
+      <c r="BJ47" s="6">
         <v>1.3583909999999999</v>
       </c>
-      <c r="BK47" s="21">
+      <c r="BK47" s="6">
         <v>1.609016</v>
       </c>
-      <c r="BL47" s="21">
+      <c r="BL47" s="6">
         <v>2.5583480000000001</v>
       </c>
-      <c r="BM47" s="21">
+      <c r="BM47" s="6">
         <v>18.310646999999999</v>
       </c>
-      <c r="BN47" s="21">
+      <c r="BN47" s="6">
         <v>32.193323999999997</v>
       </c>
-      <c r="BO47" s="21">
+      <c r="BO47" s="6">
         <v>2.733053</v>
       </c>
-      <c r="BP47" s="21">
+      <c r="BP47" s="6">
         <v>12.626993000000001</v>
       </c>
-      <c r="BQ47" s="21">
+      <c r="BQ47" s="6">
         <v>34.588503000000003</v>
       </c>
-      <c r="BR47" s="21">
+      <c r="BR47" s="6">
         <v>1.7582800000000001</v>
       </c>
-      <c r="BS47" s="21">
+      <c r="BS47" s="6">
         <v>5.4699999999999996E-4</v>
       </c>
-      <c r="BT47" s="21">
+      <c r="BT47" s="6">
         <v>0.400281</v>
       </c>
-      <c r="BU47" s="21">
+      <c r="BU47" s="6">
         <v>3.136603</v>
       </c>
-      <c r="BV47" s="21">
+      <c r="BV47" s="6">
         <v>3.1787179999999999</v>
       </c>
-      <c r="BW47" s="21">
+      <c r="BW47" s="6">
         <v>13.778866000000001</v>
       </c>
-      <c r="BX47" s="21">
+      <c r="BX47" s="6">
         <v>0.38827800000000001</v>
       </c>
-      <c r="BY47" s="21">
+      <c r="BY47" s="6">
         <v>12.794200999999999</v>
       </c>
-      <c r="BZ47" s="21">
+      <c r="BZ47" s="6">
         <v>0.135547</v>
       </c>
-      <c r="CA47" s="21">
+      <c r="CA47" s="6">
         <v>0.58404500000000004</v>
       </c>
-      <c r="CB47" s="21">
+      <c r="CB47" s="6">
         <v>6.0288209999999998</v>
       </c>
-      <c r="CC47" s="21">
+      <c r="CC47" s="6">
         <v>15.480955</v>
       </c>
-      <c r="CD47" s="21">
+      <c r="CD47" s="6">
         <v>1.014202</v>
       </c>
-      <c r="CE47" s="21">
+      <c r="CE47" s="6">
         <v>0</v>
       </c>
-      <c r="CF47" s="21">
+      <c r="CF47" s="6">
         <v>0</v>
       </c>
-      <c r="CG47" s="21">
+      <c r="CG47" s="6">
         <v>7.967689</v>
       </c>
-      <c r="CH47" s="21">
+      <c r="CH47" s="6">
         <v>14.257739000000001</v>
       </c>
-      <c r="CI47" s="21">
+      <c r="CI47" s="6">
         <v>4.7904939999999998</v>
       </c>
-      <c r="CJ47" s="21">
+      <c r="CJ47" s="6">
         <v>16.047630000000002</v>
       </c>
-      <c r="CK47" s="21">
+      <c r="CK47" s="6">
         <v>3.9006500000000002</v>
       </c>
-      <c r="CL47" s="21">
+      <c r="CL47" s="6">
         <v>1.4676480000000001</v>
       </c>
-      <c r="CM47" s="21">
+      <c r="CM47" s="6">
         <v>5.6038999999999999E-2</v>
       </c>
-      <c r="CN47" s="21">
+      <c r="CN47" s="6">
         <v>9.5803969999999996</v>
       </c>
-      <c r="CO47" s="21">
+      <c r="CO47" s="6">
         <v>6.6044140000000002</v>
       </c>
-      <c r="CP47" s="21">
+      <c r="CP47" s="6">
         <v>15.466181000000001</v>
       </c>
-      <c r="CQ47" s="21">
+      <c r="CQ47" s="6">
         <v>1.840684</v>
       </c>
-      <c r="CR47" s="21">
+      <c r="CR47" s="6">
         <v>40.264327000000002</v>
       </c>
-      <c r="CS47" s="21">
+      <c r="CS47" s="6">
         <v>7.7003779999999997</v>
       </c>
-      <c r="CT47" s="21">
+      <c r="CT47" s="6">
         <v>0.64230699999999996</v>
       </c>
-      <c r="CU47" s="21">
+      <c r="CU47" s="6">
         <v>16.496110999999999</v>
       </c>
-      <c r="CV47" s="21">
+      <c r="CV47" s="6">
         <v>22.724125999999998</v>
       </c>
-      <c r="CW47" s="21">
+      <c r="CW47" s="6">
         <v>38.207281000000002</v>
       </c>
-      <c r="CX47" s="21">
+      <c r="CX47" s="6">
         <v>1.2061839999999999</v>
       </c>
-      <c r="CY47" s="21">
+      <c r="CY47" s="6">
         <v>4.3103239999999996</v>
       </c>
-      <c r="CZ47" s="21">
+      <c r="CZ47" s="6">
         <v>35.791508</v>
       </c>
-      <c r="DA47" s="21">
+      <c r="DA47" s="6">
         <v>2.4070299999999998</v>
       </c>
-      <c r="DB47" s="21">
+      <c r="DB47" s="6">
         <v>3.4423000000000002E-2</v>
       </c>
-      <c r="DC47" s="21">
+      <c r="DC47" s="6">
         <v>0.25046000000000002</v>
       </c>
-      <c r="DD47" s="21">
+      <c r="DD47" s="6">
         <v>10.129096000000001</v>
       </c>
-      <c r="DE47" s="21">
+      <c r="DE47" s="6">
         <v>0.345717</v>
       </c>
-      <c r="DF47" s="21">
+      <c r="DF47" s="6">
         <v>6.9440000000000002E-2</v>
       </c>
-      <c r="DG47" s="21">
+      <c r="DG47" s="6">
         <v>4.5062699999999998</v>
       </c>
-      <c r="DH47" s="21">
+      <c r="DH47" s="6">
         <v>2.2071049999999999</v>
       </c>
-      <c r="DI47" s="21">
+      <c r="DI47" s="6">
         <v>15.783125999999999</v>
       </c>
-      <c r="DJ47" s="21">
+      <c r="DJ47" s="6">
         <v>3.3527740000000001</v>
       </c>
-      <c r="DK47" s="21">
+      <c r="DK47" s="6">
         <v>5.5168000000000002E-2</v>
       </c>
-      <c r="DL47" s="21">
+      <c r="DL47" s="6">
         <v>2.2447689999999998</v>
       </c>
-      <c r="DM47" s="21">
+      <c r="DM47" s="6">
         <v>0.549346</v>
       </c>
-      <c r="DN47" s="21">
+      <c r="DN47" s="6">
         <v>14.237271</v>
       </c>
-      <c r="DO47" s="21">
+      <c r="DO47" s="6">
         <v>6.1001450000000004</v>
       </c>
-      <c r="DP47" s="21">
+      <c r="DP47" s="6">
         <v>5.9723059999999997</v>
       </c>
-      <c r="DQ47" s="21">
+      <c r="DQ47" s="6">
         <v>17.137789000000001</v>
       </c>
-      <c r="DR47" s="21">
+      <c r="DR47" s="6">
         <v>102.758539</v>
       </c>
-      <c r="DS47" s="21">
+      <c r="DS47" s="6">
         <v>6.9221899999999996</v>
       </c>
-      <c r="DT47" s="21">
+      <c r="DT47" s="6">
         <v>1.257733</v>
       </c>
-      <c r="DU47" s="21">
+      <c r="DU47" s="6">
         <v>0.20181299999999999</v>
       </c>
-      <c r="DV47" s="21">
+      <c r="DV47" s="6">
         <v>19.527547999999999</v>
       </c>
-      <c r="DW47" s="21">
+      <c r="DW47" s="6">
         <v>30.231544</v>
       </c>
-      <c r="DX47" s="22">
+      <c r="DX47" s="7">
         <v>1.059507</v>
+      </c>
+    </row>
+    <row r="48" spans="1:138" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="20">
+        <v>45017</v>
+      </c>
+      <c r="B48" s="10">
+        <v>1375.0473</v>
+      </c>
+      <c r="C48" s="10">
+        <v>4.8293010000000001</v>
+      </c>
+      <c r="D48" s="10">
+        <v>7.569623</v>
+      </c>
+      <c r="E48" s="10">
+        <v>10.829351000000001</v>
+      </c>
+      <c r="F48" s="10">
+        <v>7.43E-3</v>
+      </c>
+      <c r="G48" s="10">
+        <v>4.1749020000000003</v>
+      </c>
+      <c r="H48" s="10">
+        <v>33.583249000000002</v>
+      </c>
+      <c r="I48" s="10">
+        <v>25.974360999999998</v>
+      </c>
+      <c r="J48" s="10">
+        <v>0.69755800000000001</v>
+      </c>
+      <c r="K48" s="10">
+        <v>5.4962999999999998E-2</v>
+      </c>
+      <c r="L48" s="10">
+        <v>2.2043490000000001</v>
+      </c>
+      <c r="M48" s="10">
+        <v>20.188959000000001</v>
+      </c>
+      <c r="N48" s="10">
+        <v>0.42730400000000002</v>
+      </c>
+      <c r="O48" s="10">
+        <v>19.647038999999999</v>
+      </c>
+      <c r="P48" s="10">
+        <v>12.450462</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>3.1139260000000002</v>
+      </c>
+      <c r="R48" s="10">
+        <v>0.48706700000000003</v>
+      </c>
+      <c r="S48" s="10">
+        <v>1.442663</v>
+      </c>
+      <c r="T48" s="10">
+        <v>0.15462899999999999</v>
+      </c>
+      <c r="U48" s="10">
+        <v>13.718495000000001</v>
+      </c>
+      <c r="V48" s="10">
+        <v>13.659525</v>
+      </c>
+      <c r="W48" s="10">
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <v>0.87646599999999997</v>
+      </c>
+      <c r="Y48" s="10">
+        <v>12.084877000000001</v>
+      </c>
+      <c r="Z48" s="10">
+        <v>16.927083</v>
+      </c>
+      <c r="AA48" s="10">
+        <v>10.828474999999999</v>
+      </c>
+      <c r="AB48" s="10">
+        <v>1.3375440000000001</v>
+      </c>
+      <c r="AC48" s="10">
+        <v>0.56897399999999998</v>
+      </c>
+      <c r="AD48" s="10">
+        <v>1.8241639999999999</v>
+      </c>
+      <c r="AE48" s="10">
+        <v>9.0906970000000005</v>
+      </c>
+      <c r="AF48" s="10">
+        <v>26.334427000000002</v>
+      </c>
+      <c r="AG48" s="10">
+        <v>0.95462999999999998</v>
+      </c>
+      <c r="AH48" s="10">
+        <v>2.6226569999999998</v>
+      </c>
+      <c r="AI48" s="10">
+        <v>22.381601</v>
+      </c>
+      <c r="AJ48" s="10">
+        <v>0.33563100000000001</v>
+      </c>
+      <c r="AK48" s="10">
+        <v>14.819746</v>
+      </c>
+      <c r="AL48" s="10">
+        <v>19.436658000000001</v>
+      </c>
+      <c r="AM48" s="10">
+        <v>5.3065800000000003</v>
+      </c>
+      <c r="AN48" s="10">
+        <v>4.3128190000000002</v>
+      </c>
+      <c r="AO48" s="10">
+        <v>1.5633550000000001</v>
+      </c>
+      <c r="AP48" s="10">
+        <v>172.931679</v>
+      </c>
+      <c r="AQ48" s="10">
+        <v>2.7360000000000002E-3</v>
+      </c>
+      <c r="AR48" s="10">
+        <v>4.0543909999999999</v>
+      </c>
+      <c r="AS48" s="10">
+        <v>4.5879830000000004</v>
+      </c>
+      <c r="AT48" s="10">
+        <v>2.9646119999999998</v>
+      </c>
+      <c r="AU48" s="10">
+        <v>7.2281680000000001</v>
+      </c>
+      <c r="AV48" s="10">
+        <v>13.956637000000001</v>
+      </c>
+      <c r="AW48" s="10">
+        <v>6.8561880000000004</v>
+      </c>
+      <c r="AX48" s="10">
+        <v>7.1083980000000002</v>
+      </c>
+      <c r="AY48" s="10">
+        <v>0.95682500000000004</v>
+      </c>
+      <c r="AZ48" s="10">
+        <v>14.836997</v>
+      </c>
+      <c r="BA48" s="10">
+        <v>0.89346999999999999</v>
+      </c>
+      <c r="BB48" s="10">
+        <v>1.7323440000000001</v>
+      </c>
+      <c r="BC48" s="10">
+        <v>31.042864999999999</v>
+      </c>
+      <c r="BD48" s="10">
+        <v>9.6300120000000007</v>
+      </c>
+      <c r="BE48" s="10">
+        <v>1.5949340000000001</v>
+      </c>
+      <c r="BF48" s="10">
+        <v>34.979652000000002</v>
+      </c>
+      <c r="BG48" s="10">
+        <v>10.700316000000001</v>
+      </c>
+      <c r="BH48" s="10">
+        <v>8.5521320000000003</v>
+      </c>
+      <c r="BI48" s="10">
+        <v>4.4295819999999999</v>
+      </c>
+      <c r="BJ48" s="10">
+        <v>1.4258649999999999</v>
+      </c>
+      <c r="BK48" s="10">
+        <v>1.7953539999999999</v>
+      </c>
+      <c r="BL48" s="10">
+        <v>1.891859</v>
+      </c>
+      <c r="BM48" s="10">
+        <v>19.991827000000001</v>
+      </c>
+      <c r="BN48" s="10">
+        <v>37.072436000000003</v>
+      </c>
+      <c r="BO48" s="10">
+        <v>3.1137419999999998</v>
+      </c>
+      <c r="BP48" s="10">
+        <v>14.653969</v>
+      </c>
+      <c r="BQ48" s="10">
+        <v>37.257142000000002</v>
+      </c>
+      <c r="BR48" s="10">
+        <v>1.5861320000000001</v>
+      </c>
+      <c r="BS48" s="10">
+        <v>1.9179000000000002E-2</v>
+      </c>
+      <c r="BT48" s="10">
+        <v>0.615124</v>
+      </c>
+      <c r="BU48" s="10">
+        <v>3.345478</v>
+      </c>
+      <c r="BV48" s="10">
+        <v>3.2903639999999998</v>
+      </c>
+      <c r="BW48" s="10">
+        <v>14.130591000000001</v>
+      </c>
+      <c r="BX48" s="10">
+        <v>0.29454799999999998</v>
+      </c>
+      <c r="BY48" s="10">
+        <v>13.692226</v>
+      </c>
+      <c r="BZ48" s="10">
+        <v>9.5200999999999994E-2</v>
+      </c>
+      <c r="CA48" s="10">
+        <v>0.50657799999999997</v>
+      </c>
+      <c r="CB48" s="10">
+        <v>6.9236440000000004</v>
+      </c>
+      <c r="CC48" s="10">
+        <v>16.343843</v>
+      </c>
+      <c r="CD48" s="10">
+        <v>0.49177599999999999</v>
+      </c>
+      <c r="CE48" s="10">
+        <v>0</v>
+      </c>
+      <c r="CF48" s="10">
+        <v>2.6779999999999998E-3</v>
+      </c>
+      <c r="CG48" s="10">
+        <v>8.5126500000000007</v>
+      </c>
+      <c r="CH48" s="10">
+        <v>15.583653</v>
+      </c>
+      <c r="CI48" s="10">
+        <v>4.9184749999999999</v>
+      </c>
+      <c r="CJ48" s="10">
+        <v>16.972564999999999</v>
+      </c>
+      <c r="CK48" s="10">
+        <v>4.6107279999999999</v>
+      </c>
+      <c r="CL48" s="10">
+        <v>1.62008</v>
+      </c>
+      <c r="CM48" s="10">
+        <v>5.8859000000000002E-2</v>
+      </c>
+      <c r="CN48" s="10">
+        <v>9.8810559999999992</v>
+      </c>
+      <c r="CO48" s="10">
+        <v>5.3820579999999998</v>
+      </c>
+      <c r="CP48" s="10">
+        <v>17.497567</v>
+      </c>
+      <c r="CQ48" s="10">
+        <v>2.1149840000000002</v>
+      </c>
+      <c r="CR48" s="10">
+        <v>44.730775999999999</v>
+      </c>
+      <c r="CS48" s="10">
+        <v>8.5249269999999999</v>
+      </c>
+      <c r="CT48" s="10">
+        <v>0.49069600000000002</v>
+      </c>
+      <c r="CU48" s="10">
+        <v>21.057987000000001</v>
+      </c>
+      <c r="CV48" s="10">
+        <v>23.688976</v>
+      </c>
+      <c r="CW48" s="10">
+        <v>39.988357000000001</v>
+      </c>
+      <c r="CX48" s="10">
+        <v>1.944717</v>
+      </c>
+      <c r="CY48" s="10">
+        <v>4.5697729999999996</v>
+      </c>
+      <c r="CZ48" s="10">
+        <v>39.036956000000004</v>
+      </c>
+      <c r="DA48" s="10">
+        <v>1.7697830000000001</v>
+      </c>
+      <c r="DB48" s="10">
+        <v>5.4292E-2</v>
+      </c>
+      <c r="DC48" s="10">
+        <v>0.25091400000000003</v>
+      </c>
+      <c r="DD48" s="10">
+        <v>12.083129</v>
+      </c>
+      <c r="DE48" s="10">
+        <v>0.20586599999999999</v>
+      </c>
+      <c r="DF48" s="10">
+        <v>9.7017000000000006E-2</v>
+      </c>
+      <c r="DG48" s="10">
+        <v>5.5342520000000004</v>
+      </c>
+      <c r="DH48" s="10">
+        <v>2.269682</v>
+      </c>
+      <c r="DI48" s="10">
+        <v>17.97241</v>
+      </c>
+      <c r="DJ48" s="10">
+        <v>1.82202</v>
+      </c>
+      <c r="DK48" s="10">
+        <v>8.7249999999999994E-2</v>
+      </c>
+      <c r="DL48" s="10">
+        <v>2.1173690000000001</v>
+      </c>
+      <c r="DM48" s="10">
+        <v>0.56630000000000003</v>
+      </c>
+      <c r="DN48" s="10">
+        <v>17.519017000000002</v>
+      </c>
+      <c r="DO48" s="10">
+        <v>6.5586089999999997</v>
+      </c>
+      <c r="DP48" s="10">
+        <v>6.417116</v>
+      </c>
+      <c r="DQ48" s="10">
+        <v>19.381491</v>
+      </c>
+      <c r="DR48" s="10">
+        <v>98.930171000000001</v>
+      </c>
+      <c r="DS48" s="10">
+        <v>7.9187260000000004</v>
+      </c>
+      <c r="DT48" s="10">
+        <v>0.73415200000000003</v>
+      </c>
+      <c r="DU48" s="10">
+        <v>0.18546399999999999</v>
+      </c>
+      <c r="DV48" s="10">
+        <v>21.778305</v>
+      </c>
+      <c r="DW48" s="10">
+        <v>33.513713000000003</v>
+      </c>
+      <c r="DX48" s="11">
+        <v>1.6933689999999999</v>
       </c>
     </row>
   </sheetData>
